--- a/members/이효린/notebooks/자동차등록대수_사고건수비_비교(17-21).xlsx
+++ b/members/이효린/notebooks/자동차등록대수_사고건수비_비교(17-21).xlsx
@@ -472,19 +472,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>890578908.5545722</v>
+        <v>890578908554.572</v>
       </c>
       <c r="C2" t="n">
-        <v>886839899.4132439</v>
+        <v>886839899413.244</v>
       </c>
       <c r="D2" t="n">
-        <v>914780664.9902208</v>
+        <v>914780664990.2209</v>
       </c>
       <c r="E2" t="n">
-        <v>1097214576.681713</v>
+        <v>1097214576681.713</v>
       </c>
       <c r="F2" t="n">
-        <v>831100344.365793</v>
+        <v>831100344.3660001</v>
       </c>
     </row>
     <row r="3">
@@ -494,7 +494,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>592120977.2265583</v>
+        <v>592120977226.558</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>966695790.5041605</v>
+        <v>966695790504.16</v>
       </c>
       <c r="C4" t="n">
-        <v>1021329656.233966</v>
+        <v>1021329656233.966</v>
       </c>
       <c r="D4" t="n">
-        <v>1131447052.249232</v>
+        <v>1131447052249.232</v>
       </c>
       <c r="E4" t="n">
-        <v>1136641562.064156</v>
+        <v>1136641562064.156</v>
       </c>
       <c r="F4" t="n">
-        <v>1103833826.297392</v>
+        <v>1103833826.297</v>
       </c>
     </row>
     <row r="5">
@@ -530,19 +530,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>323201956.4250778</v>
+        <v>323201956425.078</v>
       </c>
       <c r="C5" t="n">
-        <v>320500342.1142662</v>
+        <v>320500342114.266</v>
       </c>
       <c r="D5" t="n">
-        <v>325513398.5538069</v>
+        <v>325513398553.807</v>
       </c>
       <c r="E5" t="n">
-        <v>363579661.0169492</v>
+        <v>363579661016.949</v>
       </c>
       <c r="F5" t="n">
-        <v>357645846.8677494</v>
+        <v>357645846.868</v>
       </c>
     </row>
     <row r="6">
@@ -552,19 +552,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>121678489.3798969</v>
+        <v>121678489379.897</v>
       </c>
       <c r="C6" t="n">
-        <v>124295208.7976864</v>
+        <v>124295208797.686</v>
       </c>
       <c r="D6" t="n">
-        <v>119792952.9616725</v>
+        <v>119792952961.672</v>
       </c>
       <c r="E6" t="n">
-        <v>134751438.0836998</v>
+        <v>134751438083.7</v>
       </c>
       <c r="F6" t="n">
-        <v>141437094.4715207</v>
+        <v>141437094.472</v>
       </c>
     </row>
     <row r="7">
@@ -574,13 +574,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1135532448.906418</v>
+        <v>1135532448906.418</v>
       </c>
       <c r="C7" t="n">
-        <v>1090080971.659919</v>
+        <v>1090080971659.919</v>
       </c>
       <c r="D7" t="n">
-        <v>1171652421.652422</v>
+        <v>1171652421652.422</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>190164711.751956</v>
+        <v>190164711751.956</v>
       </c>
       <c r="C8" t="n">
-        <v>182880335.3189449</v>
+        <v>182880335318.945</v>
       </c>
       <c r="D8" t="n">
-        <v>190926328.4501055</v>
+        <v>190926328450.105</v>
       </c>
       <c r="E8" t="n">
-        <v>219881148.8890317</v>
+        <v>219881148889.032</v>
       </c>
       <c r="F8" t="n">
-        <v>227888237.6335492</v>
+        <v>227888237.634</v>
       </c>
     </row>
     <row r="9">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>488452356.0209424</v>
+        <v>488452356020.942</v>
       </c>
       <c r="C10" t="n">
-        <v>508976768.7434002</v>
+        <v>508976768743.4</v>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
@@ -642,19 +642,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>516640916.5302782</v>
+        <v>516640916530.278</v>
       </c>
       <c r="C11" t="n">
-        <v>556674188.034188</v>
+        <v>556674188034.188</v>
       </c>
       <c r="D11" t="n">
-        <v>539229924.7176913</v>
+        <v>539229924717.691</v>
       </c>
       <c r="E11" t="n">
-        <v>643102582.4964132</v>
+        <v>643102582496.413</v>
       </c>
       <c r="F11" t="n">
-        <v>667916666.6666666</v>
+        <v>667916666.6670001</v>
       </c>
     </row>
     <row r="12">
@@ -664,16 +664,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3858789867.878482</v>
+        <v>3858789867878.482</v>
       </c>
       <c r="C12" t="n">
-        <v>3904878646.727139</v>
+        <v>3904878646727.139</v>
       </c>
       <c r="D12" t="n">
-        <v>4136529528.865295</v>
+        <v>4136529528865.296</v>
       </c>
       <c r="E12" t="n">
-        <v>4397589309.109966</v>
+        <v>4397589309109.966</v>
       </c>
       <c r="F12" t="inlineStr"/>
     </row>
@@ -684,19 +684,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>44995192.78901304</v>
+        <v>44995192789.013</v>
       </c>
       <c r="C13" t="n">
-        <v>44105461.56529166</v>
+        <v>44105461565.292</v>
       </c>
       <c r="D13" t="n">
-        <v>44295943.33048553</v>
+        <v>44295943330.486</v>
       </c>
       <c r="E13" t="n">
-        <v>56579792.90063656</v>
+        <v>56579792900.637</v>
       </c>
       <c r="F13" t="n">
-        <v>49602757.26306158</v>
+        <v>49602757.263</v>
       </c>
     </row>
     <row r="14">
@@ -706,19 +706,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>195119132.1499014</v>
+        <v>195119132149.901</v>
       </c>
       <c r="C14" t="n">
-        <v>195905963.1238135</v>
+        <v>195905963123.813</v>
       </c>
       <c r="D14" t="n">
-        <v>201863304.9656672</v>
+        <v>201863304965.667</v>
       </c>
       <c r="E14" t="n">
-        <v>252921820.7662556</v>
+        <v>252921820766.256</v>
       </c>
       <c r="F14" t="n">
-        <v>223641719.5614541</v>
+        <v>223641719.561</v>
       </c>
     </row>
     <row r="15">
@@ -728,19 +728,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>422579567.647653</v>
+        <v>422579567647.653</v>
       </c>
       <c r="C15" t="n">
-        <v>444837911.8948922</v>
+        <v>444837911894.892</v>
       </c>
       <c r="D15" t="n">
-        <v>465064600.9938614</v>
+        <v>465064600993.861</v>
       </c>
       <c r="E15" t="n">
-        <v>527135587.6827575</v>
+        <v>527135587682.758</v>
       </c>
       <c r="F15" t="n">
-        <v>517784712.8712871</v>
+        <v>517784712.871</v>
       </c>
     </row>
     <row r="16">
@@ -750,19 +750,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>350644867.6891961</v>
+        <v>350644867689.196</v>
       </c>
       <c r="C16" t="n">
-        <v>350194532.2464371</v>
+        <v>350194532246.437</v>
       </c>
       <c r="D16" t="n">
-        <v>358737965.2046619</v>
+        <v>358737965204.662</v>
       </c>
       <c r="E16" t="n">
-        <v>382905367.8167722</v>
+        <v>382905367816.772</v>
       </c>
       <c r="F16" t="n">
-        <v>377616712.5487497</v>
+        <v>377616712.549</v>
       </c>
     </row>
     <row r="17">
@@ -772,16 +772,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>341284389.5806638</v>
+        <v>341284389580.664</v>
       </c>
       <c r="C17" t="n">
-        <v>348619507.5220677</v>
+        <v>348619507522.068</v>
       </c>
       <c r="D17" t="n">
-        <v>349186039.5849347</v>
+        <v>349186039584.935</v>
       </c>
       <c r="E17" t="n">
-        <v>502432283.8854699</v>
+        <v>502432283885.47</v>
       </c>
       <c r="F17" t="inlineStr"/>
     </row>
@@ -804,19 +804,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>230205173.807599</v>
+        <v>230205173807.599</v>
       </c>
       <c r="C19" t="n">
-        <v>245629364.8154307</v>
+        <v>245629364815.431</v>
       </c>
       <c r="D19" t="n">
-        <v>251854107.8838174</v>
+        <v>251854107883.817</v>
       </c>
       <c r="E19" t="n">
-        <v>325348953.9748954</v>
+        <v>325348953974.895</v>
       </c>
       <c r="F19" t="n">
-        <v>293542401.5009381</v>
+        <v>293542401.501</v>
       </c>
     </row>
     <row r="20">
@@ -826,19 +826,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>340336134.4537815</v>
+        <v>340336134453.782</v>
       </c>
       <c r="C20" t="n">
-        <v>388248847.9262673</v>
+        <v>388248847926.267</v>
       </c>
       <c r="D20" t="n">
-        <v>444155844.1558442</v>
+        <v>444155844155.844</v>
       </c>
       <c r="E20" t="n">
-        <v>471801925.7221458</v>
+        <v>471801925722.146</v>
       </c>
       <c r="F20" t="n">
-        <v>402061855.6701031</v>
+        <v>402061855.67</v>
       </c>
     </row>
     <row r="21">
@@ -848,19 +848,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>441785420.437716</v>
+        <v>441785420437.716</v>
       </c>
       <c r="C21" t="n">
-        <v>450627642.007926</v>
+        <v>450627642007.926</v>
       </c>
       <c r="D21" t="n">
-        <v>479597525.347998</v>
+        <v>479597525347.998</v>
       </c>
       <c r="E21" t="n">
-        <v>643184959.3495935</v>
+        <v>643184959349.594</v>
       </c>
       <c r="F21" t="n">
-        <v>590556482.8007327</v>
+        <v>590556482.801</v>
       </c>
     </row>
     <row r="22">
@@ -882,19 +882,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>285845468.6432021</v>
+        <v>285845468643.202</v>
       </c>
       <c r="C23" t="n">
-        <v>306619415.1919242</v>
+        <v>306619415191.924</v>
       </c>
       <c r="D23" t="n">
-        <v>323756768.8212187</v>
+        <v>323756768821.219</v>
       </c>
       <c r="E23" t="n">
-        <v>417104273.6475865</v>
+        <v>417104273647.586</v>
       </c>
       <c r="F23" t="n">
-        <v>380701779.9245682</v>
+        <v>380701779.925</v>
       </c>
     </row>
     <row r="24">
@@ -904,19 +904,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>177918400.0855569</v>
+        <v>177918400085.557</v>
       </c>
       <c r="C24" t="n">
-        <v>183775579.4387451</v>
+        <v>183775579438.745</v>
       </c>
       <c r="D24" t="n">
-        <v>192959368.7038281</v>
+        <v>192959368703.828</v>
       </c>
       <c r="E24" t="n">
-        <v>228112879.0348875</v>
+        <v>228112879034.888</v>
       </c>
       <c r="F24" t="n">
-        <v>216598950.3875023</v>
+        <v>216598950.388</v>
       </c>
     </row>
     <row r="25">
@@ -926,19 +926,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>247515336.0727913</v>
+        <v>247515336072.791</v>
       </c>
       <c r="C25" t="n">
-        <v>278363621.884208</v>
+        <v>278363621884.208</v>
       </c>
       <c r="D25" t="n">
-        <v>284190449.8816101</v>
+        <v>284190449881.61</v>
       </c>
       <c r="E25" t="n">
-        <v>340466869.6936139</v>
+        <v>340466869693.614</v>
       </c>
       <c r="F25" t="n">
-        <v>332361433.2698632</v>
+        <v>332361433.27</v>
       </c>
     </row>
     <row r="26">
@@ -948,19 +948,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>306056301.5554526</v>
+        <v>306056301555.453</v>
       </c>
       <c r="C26" t="n">
-        <v>314814382.8621826</v>
+        <v>314814382862.183</v>
       </c>
       <c r="D26" t="n">
-        <v>319580324.4222717</v>
+        <v>319580324422.272</v>
       </c>
       <c r="E26" t="n">
-        <v>468117288.5424944</v>
+        <v>468117288542.494</v>
       </c>
       <c r="F26" t="n">
-        <v>369323529.218107</v>
+        <v>369323529.218</v>
       </c>
     </row>
     <row r="27">
@@ -970,19 +970,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>193585742.2722989</v>
+        <v>193585742272.299</v>
       </c>
       <c r="C27" t="n">
-        <v>212420479.748073</v>
+        <v>212420479748.073</v>
       </c>
       <c r="D27" t="n">
-        <v>239897858.8122349</v>
+        <v>239897858812.235</v>
       </c>
       <c r="E27" t="n">
-        <v>295721199.4385111</v>
+        <v>295721199438.511</v>
       </c>
       <c r="F27" t="n">
-        <v>299000163.8291458</v>
+        <v>299000163.829</v>
       </c>
     </row>
     <row r="28">
@@ -992,19 +992,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>334242581.0092649</v>
+        <v>334242581009.265</v>
       </c>
       <c r="C28" t="n">
-        <v>337429759.2398008</v>
+        <v>337429759239.801</v>
       </c>
       <c r="D28" t="n">
-        <v>367345957.8967605</v>
+        <v>367345957896.761</v>
       </c>
       <c r="E28" t="n">
-        <v>426896139.8555839</v>
+        <v>426896139855.584</v>
       </c>
       <c r="F28" t="n">
-        <v>442057721.9651906</v>
+        <v>442057721.965</v>
       </c>
     </row>
     <row r="29">
@@ -1014,19 +1014,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>121690295.3788659</v>
+        <v>121690295378.866</v>
       </c>
       <c r="C29" t="n">
-        <v>137332346.7877736</v>
+        <v>137332346787.774</v>
       </c>
       <c r="D29" t="n">
-        <v>142682897.6201396</v>
+        <v>142682897620.14</v>
       </c>
       <c r="E29" t="n">
-        <v>189791686.8721856</v>
+        <v>189791686872.186</v>
       </c>
       <c r="F29" t="n">
-        <v>168327976.3580073</v>
+        <v>168327976.358</v>
       </c>
     </row>
     <row r="30">
@@ -1036,19 +1036,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>215177000.664266</v>
+        <v>215177000664.266</v>
       </c>
       <c r="C30" t="n">
-        <v>224936174.034886</v>
+        <v>224936174034.886</v>
       </c>
       <c r="D30" t="n">
-        <v>242988197.6299694</v>
+        <v>242988197629.969</v>
       </c>
       <c r="E30" t="n">
-        <v>321842680.3350419</v>
+        <v>321842680335.042</v>
       </c>
       <c r="F30" t="n">
-        <v>329598821.0600405</v>
+        <v>329598821.06</v>
       </c>
     </row>
     <row r="31">
@@ -1094,7 +1094,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179123082.2873082</v>
+        <v>179123082287.308</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
@@ -1108,19 +1108,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>904609279.6092796</v>
+        <v>904609279609.28</v>
       </c>
       <c r="C35" t="n">
-        <v>972437961.7351772</v>
+        <v>972437961735.177</v>
       </c>
       <c r="D35" t="n">
-        <v>1056160855.784469</v>
+        <v>1056160855784.469</v>
       </c>
       <c r="E35" t="n">
-        <v>1401486830.926083</v>
+        <v>1401486830926.083</v>
       </c>
       <c r="F35" t="n">
-        <v>1491497194.950912</v>
+        <v>1491497194.951</v>
       </c>
     </row>
     <row r="36">
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>808587736.5089656</v>
+        <v>808587736508.9659</v>
       </c>
       <c r="C36" t="n">
-        <v>866858838.7189326</v>
+        <v>866858838718.933</v>
       </c>
       <c r="D36" t="n">
-        <v>862400528.4204513</v>
+        <v>862400528420.451</v>
       </c>
       <c r="E36" t="n">
-        <v>1068178918.906939</v>
+        <v>1068178918906.939</v>
       </c>
       <c r="F36" t="n">
-        <v>906651512.8875607</v>
+        <v>906651512.888</v>
       </c>
     </row>
     <row r="37">
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1051669675.090253</v>
+        <v>1051669675090.253</v>
       </c>
       <c r="C37" t="n">
-        <v>1105287569.573284</v>
+        <v>1105287569573.284</v>
       </c>
       <c r="D37" t="n">
-        <v>1218890554.722639</v>
+        <v>1218890554722.639</v>
       </c>
       <c r="E37" t="n">
-        <v>1376983370.288248</v>
+        <v>1376983370288.248</v>
       </c>
       <c r="F37" t="n">
-        <v>1550534998.458218</v>
+        <v>1550534998.458</v>
       </c>
     </row>
     <row r="38">
@@ -1174,19 +1174,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>255425495.7850688</v>
+        <v>255425495785.069</v>
       </c>
       <c r="C38" t="n">
-        <v>260624623.9159932</v>
+        <v>260624623915.993</v>
       </c>
       <c r="D38" t="n">
-        <v>278185962.5909665</v>
+        <v>278185962590.966</v>
       </c>
       <c r="E38" t="n">
-        <v>345226956.0168384</v>
+        <v>345226956016.838</v>
       </c>
       <c r="F38" t="n">
-        <v>343258483.8052413</v>
+        <v>343258483.805</v>
       </c>
     </row>
     <row r="39">
